--- a/rmonize/data_proc_elem/DPE_CARLA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_CARLA_P1.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>school;occup_edu;occup_edu_2; occup_edu_h; educ; educ3</t>
+          <t>school;occup_edu_h</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -601,8 +601,14 @@
       <c r="H5" t="inlineStr">
         <is>
           <t>case_when(_x000D_
-school %in% c(5,6)|occup_edu%in% c(7)|occup_edu_2  %in% c(7)|occup_edu_h%in% c(7)|educ %in% c(7)~ 7,                                                                                                                                               school%in% c(5,6)|occup_edu %in% c(6)|occup_edu_2  %in% c(6)|occup_edu_h%in% c(6)|educ%in% c(6)~ 6L,                                                                                                                                       school %in% c(5,6)|occup_edu%in% c(5)|occup_edu_2  %in% c(5)|occup_edu_h%in% c(5)|educ%in% c(5)~ 5L,                                                                                                                                 school %in% c(5,6)|occup_edu%in% c(4)|occup_edu_2 %in% c(4)|occup_edu_h%in% c(4)|educ%in% c(4)~ 4L,                                                                                                                         school %in% c(3,4)|occup_edu  %in% c(3)|occup_edu_2%in%c(3)|occup_edu_h%in% c(3)|educ %in% c(3)|educ3%in% c(3)~ 3L,                                                                                    school  %in% c(2)|occup_edu %in% c(2)|occup_edu_2 %in% c(2)|occup_edu_h%in% c(2)|educ %in% c(2)|educ3%in% c(2)~ 2L,                                                                                    school  %in% c(1)|occup_edu %in% c(1)|occup_edu_2 %in% c(1)|occup_edu_h%in% c(1)|educ %in% c(1)|educ3%in% c(1)~ 1L,                                       _x000D_
-school  %in% c(7)|occup_edu%in% c(8)|occup_edu_2  %in% c(8)|occup_edu_h%in% c(8)~ 9L,                                                                                                                                                                 TRUE ~ NA_integer_)</t>
+occup_edu_h%in% c(7)~ 7,_x000D_
+occup_edu_h%in% c(5,6)~ 6L,_x000D_
+occup_edu_h%in% c(3,4)~ 4L,_x000D_
+school %in% c(5,6) ~ 3L,_x000D_
+school %in% c(2,3,4)~ 2L,_x000D_
+school %in% c(1) ~ 0L,_x000D_
+school %in% c(7)|occup_edu_h%in% c(8)~ 9L,_x000D_
+TRUE ~ NA_integer_)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -802,7 +808,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>gj/4.2</t>
+          <t>gj/4.184</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -845,6 +851,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>POTATOES_TUB_01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>approximate</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -870,6 +901,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>POTATOES_0101</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -895,6 +951,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -920,6 +1006,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>VEGETABLES_02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -945,6 +1056,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LEAFYVEG_0201</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -970,6 +1106,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FRUITINGVEG_0202</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -995,6 +1156,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ROOTVEG_0203</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1020,6 +1206,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CABBAGE_0204</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1045,6 +1256,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MUSHROOMS_0205</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1070,6 +1306,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>GRAINPODVEG_0206</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1095,6 +1356,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ONION_GARLIC_0207</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1120,6 +1406,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>STALKVEG_0208</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1145,6 +1456,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MIXEDVEG_0209</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1170,6 +1506,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LEGUMES_TOT_03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>approximate</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1195,6 +1556,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LEGUMES_0301</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1220,6 +1606,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>FRUITS_TOT_04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1245,6 +1656,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>FRUITS_0401</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1270,6 +1706,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NUTS_SEEDS_0402</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1295,6 +1756,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MIXEDFRUITS_0403</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1320,6 +1806,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1345,6 +1861,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DAIRY_05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1370,6 +1911,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MILK_0501</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1395,6 +1961,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MILKBEV_0502</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1420,6 +2011,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>YOGURT_0503</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1445,6 +2061,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CURD_0504</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -1470,6 +2111,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CHEESE_0505</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -1495,6 +2161,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DAIRYDESSERT_0506</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1520,6 +2211,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CREAM_PROD_0507</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -1545,6 +2261,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>DAIRYCREAM_050701</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1570,6 +2311,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -1595,6 +2366,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>MILK_FOR_COFFEE_0508</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -1620,6 +2416,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>CEREAL_PROD_06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1645,6 +2466,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>FLOUR_FLAKES_0601</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1670,6 +2516,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>PASTA_RICE_0602</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1695,6 +2566,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BREAD_PROD_0603</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -1720,6 +2616,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BREAD_060301</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1745,6 +2666,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>CRISPBREAD_060302</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1770,6 +2716,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BREAKF_CEREALS_0604</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -1795,6 +2766,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SALT_BISCUIT_0605</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1820,6 +2816,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DOUGH_PASTRY_0606</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -1845,6 +2866,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>MEAT_PROD_07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -1870,6 +2916,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>RED_MEAT_0701</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -1895,6 +2966,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>BEEF_070101</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -1920,6 +3016,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>VEAL_070102</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -1945,6 +3066,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>PORK_070103</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -1970,6 +3116,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MUTTON_LAMB_070104</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -1995,6 +3166,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -2020,6 +3221,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -2045,6 +3276,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>POULTRY_0702</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -2070,6 +3326,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>OTHERPOULTRY_070200</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -2095,6 +3376,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CHICKEN_070201</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -2120,6 +3426,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -2145,6 +3481,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -2170,6 +3536,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -2195,6 +3591,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>RABBIT_070205</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -2220,6 +3641,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -2245,6 +3696,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>PROCMEAT_0704</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -2270,6 +3746,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>OFFALS_0705</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -2295,6 +3796,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>FISH_SHELLFISH_08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -2320,6 +3846,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>FISH_0801</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -2345,6 +3896,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -2370,6 +3951,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>FISH_PROD_0803</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -2395,6 +4001,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>EGG_PROD_09</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -2420,6 +4051,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>EGGS_0901</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -2445,6 +4101,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>FAT_10</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -2470,6 +4151,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>VEGOILS_1001</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -2495,6 +4201,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>BUTTER_1002</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -2520,6 +4251,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>MARGARINE_1003</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -2545,6 +4301,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>FRYFAT_1004</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -2570,6 +4351,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -2595,6 +4406,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>OTHER_ANIMALFAT_1006</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -2620,6 +4456,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>SUGAR_CONFECT_11</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -2645,6 +4506,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>HONEY_JAM_1101</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -2670,6 +4556,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>CHOCOLATE_1102</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -2695,6 +4606,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NONCHOC_SWEETS_1103</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -2720,6 +4656,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -2745,6 +4711,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ICECREAM_1105</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -2770,6 +4761,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ICECREAM_MILK_110501</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -2795,6 +4811,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -2820,6 +4866,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -2845,6 +4921,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>CAKES_12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -2870,6 +4971,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>VARPASTRY_1201</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -2895,6 +5021,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>DRYCAKE_1202</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -2920,6 +5071,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NONALC_BEV_13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -2945,6 +5121,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>FRUITVEG_JUICE_1301</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -2970,6 +5171,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>SOFTDRINKS_1302</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -2995,6 +5221,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>HOTDRINKS_1303</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -3020,6 +5271,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>COFFEE_130301</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -3045,6 +5321,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>TEA_130302</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -3070,6 +5371,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>HERBALTEA_130303</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -3095,6 +5421,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>COFFEE_IMITATE_130304</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -3120,6 +5471,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>WATER_1304</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -3145,6 +5521,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ALC_BEV_14</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -3170,6 +5571,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>WINE_1401</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -3195,6 +5621,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>FORTWINE_1402</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -3220,6 +5671,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>BEER_1403</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -3245,6 +5721,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>SPIRITS_1404</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -3270,6 +5771,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>HERBLIQUEUR_1405</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -3295,6 +5821,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LIQUEURS_1406</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -3320,6 +5871,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -3345,6 +5926,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>CONDIMENT_SAUCES_15</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -3370,6 +5976,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>SAUCES_1501</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -3395,6 +6026,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>TOMATOSAUCE_150101</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -3420,6 +6076,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>DRESSINGS_150102</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -3445,6 +6126,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>MAYONNAISE_150103</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -3470,6 +6176,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -3495,6 +6231,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -3520,6 +6286,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>HERBS_SPICES_1503</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -3545,6 +6336,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>CONDIMENTS_1504</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -3570,6 +6386,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>SOUP_BOUILLON_16</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -3595,6 +6436,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>SOUP_1601</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -3620,6 +6486,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>BOUILLON_1602</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -3645,6 +6536,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS_17</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -3670,6 +6586,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>VEG_DISHES_1700</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -3695,6 +6636,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>SOY_PROD_1701</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -3720,6 +6686,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>DIET_PROD_1702</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -3745,6 +6736,31 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>ART_SWEETENER_170201</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>direct_mapping</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -3770,6 +6786,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -3795,6 +6841,36 @@
           <t>CARLA_P1</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>unavailable</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -3818,6 +6894,36 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>CARLA_P1</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>__BLANK__</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>paste</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1(FFQ)</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>identical</t>
         </is>
       </c>
     </row>

--- a/rmonize/data_proc_elem/DPE_CARLA_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_CARLA_P1.xlsx
@@ -440,7 +440,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
